--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pdpn-Clec1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pdpn-Clec1b.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.692503333333333</v>
+        <v>0.187539</v>
       </c>
       <c r="H2">
-        <v>11.07751</v>
+        <v>0.562617</v>
       </c>
       <c r="I2">
-        <v>0.04591661516224661</v>
+        <v>0.002165158903160718</v>
       </c>
       <c r="J2">
-        <v>0.04591661516224662</v>
+        <v>0.002165158903160718</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.080793333333333</v>
+        <v>4.443921666666667</v>
       </c>
       <c r="N2">
-        <v>6.24238</v>
+        <v>13.331765</v>
       </c>
       <c r="O2">
-        <v>0.4806332454150903</v>
+        <v>0.5356711567217328</v>
       </c>
       <c r="P2">
-        <v>0.4806332454150903</v>
+        <v>0.5356711567217328</v>
       </c>
       <c r="Q2">
-        <v>7.683336319311111</v>
+        <v>0.8334086254450002</v>
       </c>
       <c r="R2">
-        <v>69.1500268738</v>
+        <v>7.500677629005001</v>
       </c>
       <c r="S2">
-        <v>0.02206905176390633</v>
+        <v>0.00115981317414246</v>
       </c>
       <c r="T2">
-        <v>0.02206905176390634</v>
+        <v>0.00115981317414246</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.692503333333333</v>
+        <v>0.187539</v>
       </c>
       <c r="H3">
-        <v>11.07751</v>
+        <v>0.562617</v>
       </c>
       <c r="I3">
-        <v>0.04591661516224661</v>
+        <v>0.002165158903160718</v>
       </c>
       <c r="J3">
-        <v>0.04591661516224662</v>
+        <v>0.002165158903160718</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>1.831496</v>
       </c>
       <c r="O3">
-        <v>0.141016385808739</v>
+        <v>0.07358962454342892</v>
       </c>
       <c r="P3">
-        <v>0.141016385808739</v>
+        <v>0.07358962454342892</v>
       </c>
       <c r="Q3">
-        <v>2.254268361662222</v>
+        <v>0.114492309448</v>
       </c>
       <c r="R3">
-        <v>20.28841525496</v>
+        <v>1.030430785032</v>
       </c>
       <c r="S3">
-        <v>0.006474995118750764</v>
+        <v>0.0001593332307604596</v>
       </c>
       <c r="T3">
-        <v>0.006474995118750765</v>
+        <v>0.0001593332307604596</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>3.692503333333333</v>
+        <v>0.187539</v>
       </c>
       <c r="H4">
-        <v>11.07751</v>
+        <v>0.562617</v>
       </c>
       <c r="I4">
-        <v>0.04591661516224661</v>
+        <v>0.002165158903160718</v>
       </c>
       <c r="J4">
-        <v>0.04591661516224662</v>
+        <v>0.002165158903160718</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1348576666666667</v>
+        <v>0.071866</v>
       </c>
       <c r="N4">
-        <v>0.404573</v>
+        <v>0.215598</v>
       </c>
       <c r="O4">
-        <v>0.03115017573382578</v>
+        <v>0.008662741208451554</v>
       </c>
       <c r="P4">
-        <v>0.03115017573382578</v>
+        <v>0.008662741208451554</v>
       </c>
       <c r="Q4">
-        <v>0.4979623836922223</v>
+        <v>0.013477677774</v>
       </c>
       <c r="R4">
-        <v>4.48166145323</v>
+        <v>0.121299099966</v>
       </c>
       <c r="S4">
-        <v>0.001430310631406431</v>
+        <v>1.875621125325612E-05</v>
       </c>
       <c r="T4">
-        <v>0.001430310631406431</v>
+        <v>1.875621125325612E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>3.692503333333333</v>
+        <v>0.187539</v>
       </c>
       <c r="H5">
-        <v>11.07751</v>
+        <v>0.562617</v>
       </c>
       <c r="I5">
-        <v>0.04591661516224661</v>
+        <v>0.002165158903160718</v>
       </c>
       <c r="J5">
-        <v>0.04591661516224662</v>
+        <v>0.002165158903160718</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.503125</v>
+        <v>3.169702</v>
       </c>
       <c r="N5">
-        <v>4.509375</v>
+        <v>9.509106000000001</v>
       </c>
       <c r="O5">
-        <v>0.3472001930423449</v>
+        <v>0.3820764775263868</v>
       </c>
       <c r="P5">
-        <v>0.347200193042345</v>
+        <v>0.3820764775263868</v>
       </c>
       <c r="Q5">
-        <v>5.550294072916667</v>
+        <v>0.5944427433780001</v>
       </c>
       <c r="R5">
-        <v>49.95264665625</v>
+        <v>5.349984690402001</v>
       </c>
       <c r="S5">
-        <v>0.01594225764818308</v>
+        <v>0.0008272562870045422</v>
       </c>
       <c r="T5">
-        <v>0.01594225764818309</v>
+        <v>0.0008272562870045424</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>192.184399</v>
       </c>
       <c r="I6">
-        <v>0.7966101668218448</v>
+        <v>0.739596852820732</v>
       </c>
       <c r="J6">
-        <v>0.7966101668218449</v>
+        <v>0.7395968528207321</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.080793333333333</v>
+        <v>4.443921666666667</v>
       </c>
       <c r="N6">
-        <v>6.24238</v>
+        <v>13.331765</v>
       </c>
       <c r="O6">
-        <v>0.4806332454150903</v>
+        <v>0.5356711567217328</v>
       </c>
       <c r="P6">
-        <v>0.4806332454150903</v>
+        <v>0.5356711567217328</v>
       </c>
       <c r="Q6">
-        <v>133.2986720699578</v>
+        <v>284.6841382371373</v>
       </c>
       <c r="R6">
-        <v>1199.68804862962</v>
+        <v>2562.157244134235</v>
       </c>
       <c r="S6">
-        <v>0.3828773298102398</v>
+        <v>0.3961807016582347</v>
       </c>
       <c r="T6">
-        <v>0.3828773298102399</v>
+        <v>0.3961807016582347</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>192.184399</v>
       </c>
       <c r="I7">
-        <v>0.7966101668218448</v>
+        <v>0.739596852820732</v>
       </c>
       <c r="J7">
-        <v>0.7966101668218449</v>
+        <v>0.7395968528207321</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>1.831496</v>
       </c>
       <c r="O7">
-        <v>0.141016385808739</v>
+        <v>0.07358962454342892</v>
       </c>
       <c r="P7">
-        <v>0.141016385808739</v>
+        <v>0.07358962454342892</v>
       </c>
       <c r="Q7">
         <v>39.10943978121156</v>
@@ -883,10 +883,10 @@
         <v>351.984958030904</v>
       </c>
       <c r="S7">
-        <v>0.1123350866237132</v>
+        <v>0.05442665471257932</v>
       </c>
       <c r="T7">
-        <v>0.1123350866237132</v>
+        <v>0.05442665471257933</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>192.184399</v>
       </c>
       <c r="I8">
-        <v>0.7966101668218448</v>
+        <v>0.739596852820732</v>
       </c>
       <c r="J8">
-        <v>0.7966101668218449</v>
+        <v>0.7395968528207321</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,28 +927,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1348576666666667</v>
+        <v>0.071866</v>
       </c>
       <c r="N8">
-        <v>0.404573</v>
+        <v>0.215598</v>
       </c>
       <c r="O8">
-        <v>0.03115017573382578</v>
+        <v>0.008662741208451554</v>
       </c>
       <c r="P8">
-        <v>0.03115017573382578</v>
+        <v>0.008662741208451554</v>
       </c>
       <c r="Q8">
-        <v>8.639179872958557</v>
+        <v>4.603841339511334</v>
       </c>
       <c r="R8">
-        <v>77.75261885662701</v>
+        <v>41.434572055602</v>
       </c>
       <c r="S8">
-        <v>0.02481454668785273</v>
+        <v>0.006406936134571234</v>
       </c>
       <c r="T8">
-        <v>0.02481454668785274</v>
+        <v>0.006406936134571235</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>192.184399</v>
       </c>
       <c r="I9">
-        <v>0.7966101668218448</v>
+        <v>0.739596852820732</v>
       </c>
       <c r="J9">
-        <v>0.7966101668218449</v>
+        <v>0.7395968528207321</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.503125</v>
+        <v>3.169702</v>
       </c>
       <c r="N9">
-        <v>4.509375</v>
+        <v>9.509106000000001</v>
       </c>
       <c r="O9">
-        <v>0.3472001930423449</v>
+        <v>0.3820764775263868</v>
       </c>
       <c r="P9">
-        <v>0.347200193042345</v>
+        <v>0.3820764775263868</v>
       </c>
       <c r="Q9">
-        <v>96.29239158229169</v>
+        <v>203.0557579596994</v>
       </c>
       <c r="R9">
-        <v>866.6315242406251</v>
+        <v>1827.501821637294</v>
       </c>
       <c r="S9">
-        <v>0.2765832037000391</v>
+        <v>0.2825825603153468</v>
       </c>
       <c r="T9">
-        <v>0.2765832037000392</v>
+        <v>0.2825825603153468</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.367945333333334</v>
+        <v>19.62095333333333</v>
       </c>
       <c r="H10">
-        <v>22.103836</v>
+        <v>58.86286</v>
       </c>
       <c r="I10">
-        <v>0.09162107109101347</v>
+        <v>0.2265261188241786</v>
       </c>
       <c r="J10">
-        <v>0.09162107109101349</v>
+        <v>0.2265261188241786</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.080793333333333</v>
+        <v>4.443921666666667</v>
       </c>
       <c r="N10">
-        <v>6.24238</v>
+        <v>13.331765</v>
       </c>
       <c r="O10">
-        <v>0.4806332454150903</v>
+        <v>0.5356711567217328</v>
       </c>
       <c r="P10">
-        <v>0.4806332454150903</v>
+        <v>0.5356711567217328</v>
       </c>
       <c r="Q10">
-        <v>15.33117152996445</v>
+        <v>87.19397963865556</v>
       </c>
       <c r="R10">
-        <v>137.98054376968</v>
+        <v>784.7458167479</v>
       </c>
       <c r="S10">
-        <v>0.04403613274688051</v>
+        <v>0.1213435080982324</v>
       </c>
       <c r="T10">
-        <v>0.04403613274688052</v>
+        <v>0.1213435080982324</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.367945333333334</v>
+        <v>19.62095333333333</v>
       </c>
       <c r="H11">
-        <v>22.103836</v>
+        <v>58.86286</v>
       </c>
       <c r="I11">
-        <v>0.09162107109101347</v>
+        <v>0.2265261188241786</v>
       </c>
       <c r="J11">
-        <v>0.09162107109101349</v>
+        <v>0.2265261188241786</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>1.831496</v>
       </c>
       <c r="O11">
-        <v>0.141016385808739</v>
+        <v>0.07358962454342892</v>
       </c>
       <c r="P11">
-        <v>0.141016385808739</v>
+        <v>0.07358962454342892</v>
       </c>
       <c r="Q11">
-        <v>4.498120802072889</v>
+        <v>11.97856584872889</v>
       </c>
       <c r="R11">
-        <v>40.483087218656</v>
+        <v>107.80709263856</v>
       </c>
       <c r="S11">
-        <v>0.01292007230918026</v>
+        <v>0.01666997203355147</v>
       </c>
       <c r="T11">
-        <v>0.01292007230918026</v>
+        <v>0.01666997203355147</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.367945333333334</v>
+        <v>19.62095333333333</v>
       </c>
       <c r="H12">
-        <v>22.103836</v>
+        <v>58.86286</v>
       </c>
       <c r="I12">
-        <v>0.09162107109101347</v>
+        <v>0.2265261188241786</v>
       </c>
       <c r="J12">
-        <v>0.09162107109101349</v>
+        <v>0.2265261188241786</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1175,28 +1175,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.1348576666666667</v>
+        <v>0.071866</v>
       </c>
       <c r="N12">
-        <v>0.404573</v>
+        <v>0.215598</v>
       </c>
       <c r="O12">
-        <v>0.03115017573382578</v>
+        <v>0.008662741208451554</v>
       </c>
       <c r="P12">
-        <v>0.03115017573382578</v>
+        <v>0.008662741208451554</v>
       </c>
       <c r="Q12">
-        <v>0.993623915780889</v>
+        <v>1.410079432253333</v>
       </c>
       <c r="R12">
-        <v>8.942615242028001</v>
+        <v>12.69071489028</v>
       </c>
       <c r="S12">
-        <v>0.002854012465406414</v>
+        <v>0.001962337144328805</v>
       </c>
       <c r="T12">
-        <v>0.002854012465406415</v>
+        <v>0.001962337144328805</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.367945333333334</v>
+        <v>19.62095333333333</v>
       </c>
       <c r="H13">
-        <v>22.103836</v>
+        <v>58.86286</v>
       </c>
       <c r="I13">
-        <v>0.09162107109101347</v>
+        <v>0.2265261188241786</v>
       </c>
       <c r="J13">
-        <v>0.09162107109101349</v>
+        <v>0.2265261188241786</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.503125</v>
+        <v>3.169702</v>
       </c>
       <c r="N13">
-        <v>4.509375</v>
+        <v>9.509106000000001</v>
       </c>
       <c r="O13">
-        <v>0.3472001930423449</v>
+        <v>0.3820764775263868</v>
       </c>
       <c r="P13">
-        <v>0.347200193042345</v>
+        <v>0.3820764775263868</v>
       </c>
       <c r="Q13">
-        <v>11.07494282916667</v>
+        <v>62.19257502257334</v>
       </c>
       <c r="R13">
-        <v>99.67448546250002</v>
+        <v>559.73317520316</v>
       </c>
       <c r="S13">
-        <v>0.03181085356954629</v>
+        <v>0.08655030154806588</v>
       </c>
       <c r="T13">
-        <v>0.03181085356954629</v>
+        <v>0.08655030154806589</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.295670666666666</v>
+        <v>2.746778666666666</v>
       </c>
       <c r="H14">
-        <v>15.887012</v>
+        <v>8.240335999999999</v>
       </c>
       <c r="I14">
-        <v>0.06585214692489502</v>
+        <v>0.03171186945192871</v>
       </c>
       <c r="J14">
-        <v>0.06585214692489504</v>
+        <v>0.03171186945192871</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.080793333333333</v>
+        <v>4.443921666666667</v>
       </c>
       <c r="N14">
-        <v>6.24238</v>
+        <v>13.331765</v>
       </c>
       <c r="O14">
-        <v>0.4806332454150903</v>
+        <v>0.5356711567217328</v>
       </c>
       <c r="P14">
-        <v>0.4806332454150903</v>
+        <v>0.5356711567217328</v>
       </c>
       <c r="Q14">
-        <v>11.01919621872889</v>
+        <v>12.20646923033778</v>
       </c>
       <c r="R14">
-        <v>99.17276596855999</v>
+        <v>109.85822307304</v>
       </c>
       <c r="S14">
-        <v>0.03165073109406365</v>
+        <v>0.01698713379112323</v>
       </c>
       <c r="T14">
-        <v>0.03165073109406366</v>
+        <v>0.01698713379112324</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.295670666666666</v>
+        <v>2.746778666666666</v>
       </c>
       <c r="H15">
-        <v>15.887012</v>
+        <v>8.240335999999999</v>
       </c>
       <c r="I15">
-        <v>0.06585214692489502</v>
+        <v>0.03171186945192871</v>
       </c>
       <c r="J15">
-        <v>0.06585214692489504</v>
+        <v>0.03171186945192871</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>1.831496</v>
       </c>
       <c r="O15">
-        <v>0.141016385808739</v>
+        <v>0.07358962454342892</v>
       </c>
       <c r="P15">
-        <v>0.141016385808739</v>
+        <v>0.07358962454342892</v>
       </c>
       <c r="Q15">
-        <v>3.232999881105777</v>
+        <v>1.676904713628444</v>
       </c>
       <c r="R15">
-        <v>29.096998929952</v>
+        <v>15.092142422656</v>
       </c>
       <c r="S15">
-        <v>0.009286231757094763</v>
+        <v>0.002333664566537667</v>
       </c>
       <c r="T15">
-        <v>0.009286231757094764</v>
+        <v>0.002333664566537667</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.295670666666666</v>
+        <v>2.746778666666666</v>
       </c>
       <c r="H16">
-        <v>15.887012</v>
+        <v>8.240335999999999</v>
       </c>
       <c r="I16">
-        <v>0.06585214692489502</v>
+        <v>0.03171186945192871</v>
       </c>
       <c r="J16">
-        <v>0.06585214692489504</v>
+        <v>0.03171186945192871</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1423,28 +1423,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1348576666666667</v>
+        <v>0.071866</v>
       </c>
       <c r="N16">
-        <v>0.404573</v>
+        <v>0.215598</v>
       </c>
       <c r="O16">
-        <v>0.03115017573382578</v>
+        <v>0.008662741208451554</v>
       </c>
       <c r="P16">
-        <v>0.03115017573382578</v>
+        <v>0.008662741208451554</v>
       </c>
       <c r="Q16">
-        <v>0.7141617895417778</v>
+        <v>0.1973999956586666</v>
       </c>
       <c r="R16">
-        <v>6.427456105876</v>
+        <v>1.776599960928</v>
       </c>
       <c r="S16">
-        <v>0.002051305949160195</v>
+        <v>0.0002747117182982588</v>
       </c>
       <c r="T16">
-        <v>0.002051305949160195</v>
+        <v>0.0002747117182982589</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.295670666666666</v>
+        <v>2.746778666666666</v>
       </c>
       <c r="H17">
-        <v>15.887012</v>
+        <v>8.240335999999999</v>
       </c>
       <c r="I17">
-        <v>0.06585214692489502</v>
+        <v>0.03171186945192871</v>
       </c>
       <c r="J17">
-        <v>0.06585214692489504</v>
+        <v>0.03171186945192871</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.503125</v>
+        <v>3.169702</v>
       </c>
       <c r="N17">
-        <v>4.509375</v>
+        <v>9.509106000000001</v>
       </c>
       <c r="O17">
-        <v>0.3472001930423449</v>
+        <v>0.3820764775263868</v>
       </c>
       <c r="P17">
-        <v>0.347200193042345</v>
+        <v>0.3820764775263868</v>
       </c>
       <c r="Q17">
-        <v>7.960054970833333</v>
+        <v>8.706469833290667</v>
       </c>
       <c r="R17">
-        <v>71.64049473750001</v>
+        <v>78.358228499616</v>
       </c>
       <c r="S17">
-        <v>0.02286387812457641</v>
+        <v>0.01211635937596955</v>
       </c>
       <c r="T17">
-        <v>0.02286387812457642</v>
+        <v>0.01211635937596955</v>
       </c>
     </row>
   </sheetData>
